--- a/TaiLieu/240925/B04.00 Thống kê chi bình quân (tháng 1-8-2024).xlsx
+++ b/TaiLieu/240925/B04.00 Thống kê chi bình quân (tháng 1-8-2024).xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\AChuong\ToolBaoCao\TaiLieu\240925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E34C4-4CE1-4DF1-B162-7D2FD597000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C07ED-ADEA-463D-BC35-FFBA59A97A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Worksheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -703,7 +702,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,41 +797,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
@@ -3322,17 +3286,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>